--- a/public/certificates/certificate_types.xlsx
+++ b/public/certificates/certificate_types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="99">
   <si>
     <t>course_id</t>
   </si>
@@ -28,12 +28,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
     <t>Certificate in Basic Computing</t>
   </si>
   <si>
@@ -188,6 +182,135 @@
   </si>
   <si>
     <t>MS-Office,Tally Prime(Accounts, Inventory, Taxation with GST, TDS, TCS &amp; Payroll),Adv. Excel.</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>GRAPHIC DESIGN</t>
+  </si>
+  <si>
+    <t>DCA(DTP)</t>
+  </si>
+  <si>
+    <t>HDCA(WEB)</t>
+  </si>
+  <si>
+    <t>HDCS(WEB)</t>
+  </si>
+  <si>
+    <t>TALLY(PRIME)</t>
+  </si>
+  <si>
+    <t>MARG</t>
+  </si>
+  <si>
+    <t>HDCS(WEB+DGT)</t>
+  </si>
+  <si>
+    <t>HDCA</t>
+  </si>
+  <si>
+    <t>C Language</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>BUSY</t>
+  </si>
+  <si>
+    <t>HDCS(ACC)</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>HDCS(WEB) + PROJECT</t>
+  </si>
+  <si>
+    <t>ADV.EXCL</t>
+  </si>
+  <si>
+    <t>Share Trading</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>IELTS</t>
+  </si>
+  <si>
+    <t>MARG+TALLY</t>
+  </si>
+  <si>
+    <t>ADV.EXCL+TALLY(PRIME)</t>
+  </si>
+  <si>
+    <t>TYPING+(DCA)PRIME</t>
+  </si>
+  <si>
+    <t>TALLY+EXCL</t>
+  </si>
+  <si>
+    <t>EXCEL+PRIME</t>
+  </si>
+  <si>
+    <t>BASIC+EXCL(MIS)</t>
+  </si>
+  <si>
+    <t>TYPING</t>
+  </si>
+  <si>
+    <t>ADV. Exl + DCA(Prime)</t>
+  </si>
+  <si>
+    <t>BASIC+TYPING</t>
+  </si>
+  <si>
+    <t>Graphic + MultiMedia</t>
+  </si>
+  <si>
+    <t>BASIC+EXCL+TALLY(PRIME)</t>
+  </si>
+  <si>
+    <t>BASIC+MARG</t>
+  </si>
+  <si>
+    <t>BASIC+ADV. EXL</t>
+  </si>
+  <si>
+    <t>Adv.Excel+Marg</t>
+  </si>
+  <si>
+    <t>MARG + ENG</t>
+  </si>
+  <si>
+    <t>Video Editing</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>WEB+PYTHON</t>
+  </si>
+  <si>
+    <t>TALLY+BUSY</t>
+  </si>
+  <si>
+    <t>BASIC+PYTHON</t>
+  </si>
+  <si>
+    <t>BASIC+ADV. EXCL+TALLY</t>
+  </si>
+  <si>
+    <t>DCA(PRIME)</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1143,13 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1038,3532 +1164,2822 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>400</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45649.548981481479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>401</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45649.548981481479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>402</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45649.548981481479</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>403</v>
+      <c r="A5" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45649.548981481479</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>404</v>
+      <c r="A6" t="s">
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45649.548981481479</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>405</v>
+      <c r="A7" t="s">
+        <v>61</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45649.548981481479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>430</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
-        <v>45649.548981481479</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45649.548981481479</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>400</v>
+      <c r="A9" t="s">
+        <v>63</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>401</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>9</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>402</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>403</v>
+      <c r="A12" t="s">
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>404</v>
+      <c r="A13" t="s">
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>405</v>
+      <c r="A14" t="s">
+        <v>67</v>
       </c>
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>430</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>19</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>454</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>408</v>
+      <c r="A17" t="s">
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>409</v>
+      <c r="A18" t="s">
+        <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>407</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
-      <c r="E19" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>411</v>
+      <c r="A20" t="s">
+        <v>73</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>412</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F21" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>413</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
-      <c r="E22" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>414</v>
+      <c r="A23" t="s">
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>415</v>
+      <c r="A24" t="s">
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F24" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>404</v>
+      <c r="A25" t="s">
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
-      <c r="E25" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F25" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>417</v>
+      <c r="A26" t="s">
+        <v>79</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F26" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>406</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F27" s="1">
-        <v>45649.571319444447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>419</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F28" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>420</v>
+      <c r="A29" t="s">
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>72</v>
       </c>
-      <c r="E29" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F29" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>421</v>
+      <c r="A30" t="s">
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F30" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>422</v>
+      <c r="A31" t="s">
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F31" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>423</v>
+      <c r="A32" t="s">
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F32" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>424</v>
+      <c r="A33" t="s">
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
-      <c r="E33" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F33" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>425</v>
+      <c r="A34" t="s">
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F34" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>402</v>
+      <c r="A35" t="s">
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F35" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>427</v>
+      <c r="A36" t="s">
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F36" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>428</v>
+      <c r="A37" t="s">
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F37" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>429</v>
+      <c r="A38" t="s">
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F38" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>430</v>
+      <c r="A39" t="s">
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F39" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>431</v>
+      <c r="A40" t="s">
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F40" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>411</v>
+      <c r="A41" t="s">
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F41" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>433</v>
+      <c r="A42" t="s">
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <v>6</v>
       </c>
-      <c r="E42" s="1">
-        <v>45649.571319444447</v>
-      </c>
-      <c r="F42" s="1">
-        <v>45649.571319444447</v>
-      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>400</v>
+      <c r="A43" t="s">
+        <v>94</v>
       </c>
       <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F43" s="1">
-        <v>45649.571655092594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>401</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>9</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F44" s="1">
-        <v>45649.571655092594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>402</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="E45" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F45" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>403</v>
+      <c r="A46" t="s">
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>12</v>
       </c>
-      <c r="E46" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F46" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>404</v>
+      <c r="A47" t="s">
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
-      <c r="E47" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F48" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>430</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F49" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>454</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
-      <c r="E50" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F50" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F51" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>409</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
-      <c r="E52" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F52" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>407</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53">
         <v>16</v>
       </c>
-      <c r="E53" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F53" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
-      <c r="E54" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F54" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>412</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
-      <c r="E55" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F55" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>413</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56">
         <v>12</v>
       </c>
-      <c r="E56" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F56" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>414</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
-      <c r="E57" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F57" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>415</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F58" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>404</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
-      <c r="E59" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F59" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>417</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
-      <c r="E60" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F60" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>406</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
-      <c r="E61" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F61" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>419</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F62" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>420</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D63">
         <v>72</v>
       </c>
-      <c r="E63" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F63" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>421</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
-      <c r="E64" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F64" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>422</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F65" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>423</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
-      <c r="E66" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F66" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>424</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
-      <c r="E67" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F67" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>425</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D68">
         <v>5</v>
       </c>
-      <c r="E68" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F68" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
-      <c r="E69" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F69" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>427</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D70">
         <v>6</v>
       </c>
-      <c r="E70" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F70" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>428</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D71">
         <v>4</v>
       </c>
-      <c r="E71" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F71" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>429</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
-      <c r="E72" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F72" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F73" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>431</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74">
         <v>6</v>
       </c>
-      <c r="E74" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F74" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>411</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F75" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>433</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
-      <c r="E76" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F76" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>440</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
-      <c r="E77" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F77" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>441</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D78">
         <v>9</v>
       </c>
-      <c r="E78" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F78" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>442</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D79">
         <v>8</v>
       </c>
-      <c r="E79" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F79" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80">
         <v>6</v>
       </c>
-      <c r="E80" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F80" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>444</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
-      <c r="E81" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F81" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>445</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
-      <c r="E82" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F82" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>446</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
-      <c r="E83" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F83" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>447</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="E84" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F84" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>448</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F85" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>449</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
-      <c r="E86" s="1">
-        <v>45649.571655092594</v>
-      </c>
-      <c r="F86" s="1">
-        <v>45649.571655092594</v>
-      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>400</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
-      <c r="E87" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F87" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>401</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
-      <c r="E88" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F88" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>402</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89">
         <v>8</v>
       </c>
-      <c r="E89" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F89" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>403</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>12</v>
       </c>
-      <c r="E90" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F90" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>404</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>12</v>
       </c>
-      <c r="E91" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F91" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>405</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
-      <c r="E92" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F92" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>430</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F93" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>454</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D94">
         <v>8</v>
       </c>
-      <c r="E94" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F94" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>408</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D95">
         <v>12</v>
       </c>
-      <c r="E95" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F95" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>409</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
-      <c r="E96" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F96" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>407</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D97">
         <v>16</v>
       </c>
-      <c r="E97" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F97" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>411</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
-      <c r="E98" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F98" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>412</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <v>4</v>
       </c>
-      <c r="E99" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F99" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>413</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D100">
         <v>12</v>
       </c>
-      <c r="E100" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F100" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>414</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D101">
         <v>3</v>
       </c>
-      <c r="E101" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F101" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>415</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
-      <c r="E102" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F102" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>404</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D103">
         <v>12</v>
       </c>
-      <c r="E103" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F103" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>417</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D104">
         <v>3</v>
       </c>
-      <c r="E104" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F104" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>406</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
-      <c r="E105" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F105" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>419</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
-      <c r="E106" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F106" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>420</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107">
         <v>72</v>
       </c>
-      <c r="E107" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F107" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>421</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
-      <c r="E108" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F108" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>422</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D109">
         <v>4</v>
       </c>
-      <c r="E109" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F109" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>423</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D110">
         <v>8</v>
       </c>
-      <c r="E110" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F110" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>424</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D111">
         <v>6</v>
       </c>
-      <c r="E111" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F111" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>425</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D112">
         <v>5</v>
       </c>
-      <c r="E112" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F112" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>402</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D113">
         <v>8</v>
       </c>
-      <c r="E113" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F113" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>427</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D114">
         <v>6</v>
       </c>
-      <c r="E114" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F114" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>428</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D115">
         <v>4</v>
       </c>
-      <c r="E115" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F115" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>429</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
-      <c r="E116" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F116" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>430</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D117">
         <v>3</v>
       </c>
-      <c r="E117" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F117" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>431</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D118">
         <v>6</v>
       </c>
-      <c r="E118" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F118" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>411</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
-      <c r="E119" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F119" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>433</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D120">
         <v>6</v>
       </c>
-      <c r="E120" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F120" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>440</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
-      <c r="E121" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F121" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>441</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D122">
         <v>9</v>
       </c>
-      <c r="E122" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F122" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>442</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D123">
         <v>8</v>
       </c>
-      <c r="E123" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F123" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>443</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D124">
         <v>6</v>
       </c>
-      <c r="E124" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F124" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>444</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D125">
         <v>8</v>
       </c>
-      <c r="E125" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F125" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>445</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D126">
         <v>12</v>
       </c>
-      <c r="E126" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F126" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>446</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D127">
         <v>8</v>
       </c>
-      <c r="E127" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F127" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>447</v>
       </c>
       <c r="B128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
-      <c r="E128" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F128" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>448</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
-      <c r="E129" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F129" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>449</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D130">
         <v>6</v>
       </c>
-      <c r="E130" s="1">
-        <v>45649.57203703704</v>
-      </c>
-      <c r="F130" s="1">
-        <v>45649.57203703704</v>
-      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>400</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>4</v>
       </c>
-      <c r="E131" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F131" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>401</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D132">
         <v>4</v>
       </c>
-      <c r="E132" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F132" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>402</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133">
         <v>8</v>
       </c>
-      <c r="E133" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F133" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>403</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D134">
         <v>12</v>
       </c>
-      <c r="E134" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F134" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>404</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D135">
         <v>12</v>
       </c>
-      <c r="E135" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F135" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>405</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D136">
         <v>3</v>
       </c>
-      <c r="E136" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F136" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>430</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D137">
         <v>3</v>
       </c>
-      <c r="E137" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F137" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>454</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D138">
         <v>8</v>
       </c>
-      <c r="E138" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F138" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>408</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D139">
         <v>12</v>
       </c>
-      <c r="E139" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F139" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>409</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D140">
         <v>4</v>
       </c>
-      <c r="E140" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F140" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>407</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D141">
         <v>16</v>
       </c>
-      <c r="E141" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F141" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>411</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
-      <c r="E142" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F142" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>412</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D143">
         <v>4</v>
       </c>
-      <c r="E143" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F143" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>413</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D144">
         <v>12</v>
       </c>
-      <c r="E144" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F144" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>414</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
-      <c r="E145" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F145" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>415</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
-      <c r="E146" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F146" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>404</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D147">
         <v>12</v>
       </c>
-      <c r="E147" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F147" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>417</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D148">
         <v>3</v>
       </c>
-      <c r="E148" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F148" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>406</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D149">
         <v>4</v>
       </c>
-      <c r="E149" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F149" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>419</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
-      <c r="E150" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F150" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>420</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D151">
         <v>72</v>
       </c>
-      <c r="E151" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F151" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>421</v>
       </c>
       <c r="B152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
-      <c r="E152" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F152" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>422</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
-      <c r="E153" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F153" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>423</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D154">
         <v>8</v>
       </c>
-      <c r="E154" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F154" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>424</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D155">
         <v>6</v>
       </c>
-      <c r="E155" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F155" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>425</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
-      <c r="E156" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F156" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>402</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D157">
         <v>8</v>
       </c>
-      <c r="E157" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F157" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>427</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D158">
         <v>6</v>
       </c>
-      <c r="E158" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F158" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>428</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D159">
         <v>4</v>
       </c>
-      <c r="E159" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F159" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>429</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
-      <c r="E160" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F160" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>430</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
-      <c r="E161" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F161" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>431</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D162">
         <v>6</v>
       </c>
-      <c r="E162" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F162" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>411</v>
       </c>
       <c r="B163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D163">
         <v>3</v>
       </c>
-      <c r="E163" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F163" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>433</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D164">
         <v>6</v>
       </c>
-      <c r="E164" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F164" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>440</v>
       </c>
       <c r="B165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D165">
         <v>4</v>
       </c>
-      <c r="E165" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F165" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>441</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D166">
         <v>9</v>
       </c>
-      <c r="E166" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F166" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>442</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D167">
         <v>8</v>
       </c>
-      <c r="E167" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F167" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>443</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D168">
         <v>6</v>
       </c>
-      <c r="E168" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F168" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>444</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D169">
         <v>8</v>
       </c>
-      <c r="E169" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F169" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>445</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D170">
         <v>12</v>
       </c>
-      <c r="E170" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F170" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>446</v>
       </c>
       <c r="B171" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D171">
         <v>8</v>
       </c>
-      <c r="E171" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F171" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>447</v>
       </c>
       <c r="B172" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D172">
         <v>3</v>
       </c>
-      <c r="E172" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F172" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>448</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
-      <c r="E173" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F173" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>449</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>6</v>
       </c>
-      <c r="E174" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F174" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>451</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C175" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D175">
         <v>6</v>
       </c>
-      <c r="E175" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F175" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>452</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D176">
         <v>6</v>
       </c>
-      <c r="E176" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F176" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>453</v>
       </c>
       <c r="B177" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" t="s">
         <v>55</v>
-      </c>
-      <c r="C177" t="s">
-        <v>57</v>
       </c>
       <c r="D177">
         <v>8</v>
       </c>
-      <c r="E177" s="1">
-        <v>45649.572175925925</v>
-      </c>
-      <c r="F177" s="1">
-        <v>45649.572175925925</v>
-      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
